--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55759.75341576638</v>
+        <v>11096190.92973749</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55759.75341576638</v>
+        <v>11096190.92973749</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4818.569814617665</v>
+        <v>695852.794679186</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4818.569814617665</v>
+        <v>695852.794679186</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342580739.192459</v>
+        <v>54948480.21334659</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11273.94447143195</v>
+        <v>1247239.000318584</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21608.72300841665</v>
+        <v>2348345.526096031</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31943.50154540135</v>
+        <v>3449452.051873482</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42755.39057441294</v>
+        <v>4563926.511214295</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53414.78366423465</v>
+        <v>5665685.27257531</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64074.17675405636</v>
+        <v>6767444.033936324</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74734.60356480235</v>
+        <v>7869525.017762693</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>85394.39684019482</v>
+        <v>8971479.928053711</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96072.41531526702</v>
+        <v>10045279.23934563</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>106617.9571490759</v>
+        <v>11147234.14963664</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>117163.4989828848</v>
+        <v>12249189.05992767</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127275.3482969555</v>
+        <v>13329537.85285533</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137485.395590824</v>
+        <v>14429428.04376279</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148266.0815156037</v>
+        <v>15444093.61690649</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>159308.8243159747</v>
+        <v>16425099.67985966</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27052,13 +27052,13 @@
         <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>343</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>377</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>155</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
